--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori2/17/word_level_predictions_17.xlsx
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>9</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>4</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" s="2" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" t="n">
         <v>9</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" t="n">
         <v>5</v>
       </c>
-      <c r="E116" s="2" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -23954,364 +23954,364 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="n">
+      <c r="A453" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B453" t="inlineStr">
+      <c r="B453" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr">
+      <c r="C453" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E453" t="inlineStr">
+      <c r="E453" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G453" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K453" t="b">
-        <v>1</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F453" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G453" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J453" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K453" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L453" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="n">
+      <c r="A454" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B454" t="inlineStr">
+      <c r="B454" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr">
+      <c r="C454" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" t="n">
+      <c r="D454" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K454" t="b">
-        <v>1</v>
-      </c>
-      <c r="L454" t="inlineStr">
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J454" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K454" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L454" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="n">
+      <c r="A455" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B455" t="inlineStr">
+      <c r="B455" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
+      <c r="C455" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" t="n">
+      <c r="D455" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K455" t="b">
-        <v>1</v>
-      </c>
-      <c r="L455" t="inlineStr">
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J455" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K455" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L455" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="n">
+      <c r="A456" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B456" t="inlineStr">
+      <c r="B456" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
+      <c r="C456" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" t="n">
+      <c r="D456" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K456" t="b">
-        <v>1</v>
-      </c>
-      <c r="L456" t="inlineStr">
+      <c r="E456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J456" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K456" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L456" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
+      <c r="E457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
+      <c r="E458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B459" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E459" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
+      <c r="F459" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_original/ori2/17/word_level_predictions_17.xlsx
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E116" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12341,11 +12341,11 @@
         </is>
       </c>
       <c r="I229" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K229" s="2" t="b">
@@ -12393,11 +12393,11 @@
         </is>
       </c>
       <c r="I230" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K230" s="2" t="b">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F231" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G231" s="2" t="b">
@@ -12445,11 +12445,11 @@
         </is>
       </c>
       <c r="I231" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K231" s="2" t="b">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L231" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12497,11 +12497,11 @@
         </is>
       </c>
       <c r="I232" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G233" s="2" t="b">
@@ -12549,11 +12549,11 @@
         </is>
       </c>
       <c r="I233" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K233" s="2" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F234" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G234" s="2" t="b">
@@ -12601,11 +12601,11 @@
         </is>
       </c>
       <c r="I234" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K234" s="2" t="b">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="L234" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12653,11 +12653,11 @@
         </is>
       </c>
       <c r="I235" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K235" s="2" t="b">
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G236" s="2" t="b">
@@ -12705,11 +12705,11 @@
         </is>
       </c>
       <c r="I236" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K236" s="2" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12757,11 +12757,11 @@
         </is>
       </c>
       <c r="I237" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12809,11 +12809,11 @@
         </is>
       </c>
       <c r="I238" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12861,11 +12861,11 @@
         </is>
       </c>
       <c r="I239" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12913,11 +12913,11 @@
         </is>
       </c>
       <c r="I240" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K240" s="2" t="b">
@@ -12965,11 +12965,11 @@
         </is>
       </c>
       <c r="I241" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K241" s="2" t="b">
@@ -23954,364 +23954,364 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="2" t="n">
+      <c r="A453" t="n">
         <v>37</v>
       </c>
-      <c r="B453" s="2" t="inlineStr">
+      <c r="B453" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C453" s="2" t="inlineStr">
+      <c r="C453" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D453" s="2" t="n">
+      <c r="D453" t="n">
         <v>8</v>
       </c>
-      <c r="E453" s="2" t="inlineStr">
+      <c r="E453" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F453" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G453" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H453" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J453" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K453" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L453" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G453" t="b">
+        <v>1</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I453" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K453" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="2" t="n">
+      <c r="A454" t="n">
         <v>37</v>
       </c>
-      <c r="B454" s="2" t="inlineStr">
+      <c r="B454" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C454" s="2" t="inlineStr">
+      <c r="C454" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D454" s="2" t="n">
+      <c r="D454" t="n">
         <v>9</v>
       </c>
-      <c r="E454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F454" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G454" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H454" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J454" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K454" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L454" s="2" t="inlineStr">
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G454" t="b">
+        <v>1</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I454" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="2" t="n">
+      <c r="A455" t="n">
         <v>37</v>
       </c>
-      <c r="B455" s="2" t="inlineStr">
+      <c r="B455" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C455" s="2" t="inlineStr">
+      <c r="C455" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D455" s="2" t="n">
+      <c r="D455" t="n">
         <v>10</v>
       </c>
-      <c r="E455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F455" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G455" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H455" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J455" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K455" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L455" s="2" t="inlineStr">
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G455" t="b">
+        <v>1</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I455" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K455" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="2" t="n">
+      <c r="A456" t="n">
         <v>37</v>
       </c>
-      <c r="B456" s="2" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C456" s="2" t="inlineStr">
+      <c r="C456" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D456" s="2" t="n">
+      <c r="D456" t="n">
         <v>11</v>
       </c>
-      <c r="E456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F456" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G456" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H456" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J456" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K456" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L456" s="2" t="inlineStr">
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G456" t="b">
+        <v>1</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I456" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K456" t="b">
+        <v>1</v>
+      </c>
+      <c r="L456" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>37</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>12</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F457" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>37</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
+      <c r="D458" t="n">
         <v>13</v>
       </c>
-      <c r="E458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>37</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>14</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
+      <c r="F459" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
